--- a/ApolloQA/Data/RatingManual/GA/VA00068.DeductibleFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00068.DeductibleFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00068.DeductibleFactors" sheetId="1" r:id="Rf702897eb4064793"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00068.DeductibleFactors" sheetId="1" r:id="R24bbce7291494a55"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,31 +12,21 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Deductible</x:v>
+        <x:v>Radius Lower Bound</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Deductible Factor</x:v>
+        <x:v>Radius Upper Bound</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>Radius Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$250</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1500</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>$500</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0750</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>$1,000</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -44,26 +34,35 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$2,500</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9500</x:v>
+        <x:v>300</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0500</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$5,000</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9000</x:v>
+        <x:v>500</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.1000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>$10,000</x:v>
+        <x:v>501</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9000</x:v>
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.2000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
